--- a/server/export.xlsx
+++ b/server/export.xlsx
@@ -11,12 +11,333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Отчет за период с 01-01-2018</t>
-  </si>
-  <si>
-    <t>по 01-04-2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="109">
+  <si>
+    <t>Отчет за период с 01-03-2021</t>
+  </si>
+  <si>
+    <t>по 01-11-2021</t>
+  </si>
+  <si>
+    <t>Наименование отделения</t>
+  </si>
+  <si>
+    <t>Код услуги</t>
+  </si>
+  <si>
+    <t>Наименование услуги</t>
+  </si>
+  <si>
+    <t>Кол-во услуг за период</t>
+  </si>
+  <si>
+    <t>Кол-во карт за период</t>
+  </si>
+  <si>
+    <t>Суммарная стоимость услуг (руб) за период</t>
+  </si>
+  <si>
+    <t>11202806: ОБСЕРВАЦИОННОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Пароксизмальная тахикардия</t>
+  </si>
+  <si>
+    <t>Экстрасистолическая аритмия</t>
+  </si>
+  <si>
+    <t>Другие острые и подострые формы ишемической болезни сердца</t>
+  </si>
+  <si>
+    <t>Фибрилляция и мерцание предсердий</t>
+  </si>
+  <si>
+    <t>Гипертоническая болезнь, артериальная гипертония без сердечной недостаточности и ХПН. Нейроциркуляторная дистония</t>
+  </si>
+  <si>
+    <t>Хроническая ишемическая болезнь сердца. Хронические сосудистые болезни</t>
+  </si>
+  <si>
+    <t>19007800: РЕНТГЕНОВСКИЙ КАБИНЕТ</t>
+  </si>
+  <si>
+    <t>Rg-графия крупного сустава</t>
+  </si>
+  <si>
+    <t>Предварительное обследование пациентов, поступающих в федеральные медицинские организации для получения специализированной медицинской помощи в стационарных условиях при плановой госпитализации</t>
+  </si>
+  <si>
+    <t>Rg-графия шейного,грудн.,поясн.-крестц.отдела позвоночника,копчика</t>
+  </si>
+  <si>
+    <t>Rg-графия органов грудной клетки</t>
+  </si>
+  <si>
+    <t>Rg-скопия и Rg-графия сердца с контрастир. пищевода (3 проекции)</t>
+  </si>
+  <si>
+    <t>10302900: ВОСЬМОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Сердечная недостаточность застойного характера</t>
+  </si>
+  <si>
+    <t>Острый перикардит (кроме ревматического)</t>
+  </si>
+  <si>
+    <t>18506700: ПАТОЛОГОАНАТОМИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Аутопсия (вскрытие) 4-й категории сложности</t>
+  </si>
+  <si>
+    <t>19003401: КЛИНИКО-ДИАГНОСТИЧЕСКАЯ ЛАБОРАТОРИЯ</t>
+  </si>
+  <si>
+    <t>Коагулограмма (Исследование на автоматическом коагулометре)</t>
+  </si>
+  <si>
+    <t>Исследование мочи на мочевом анализаторе</t>
+  </si>
+  <si>
+    <t>Исследование уровня  фибриногена в крови</t>
+  </si>
+  <si>
+    <t>Исследование уровня адреналина, норадреналина</t>
+  </si>
+  <si>
+    <t>Определение одного гормона</t>
+  </si>
+  <si>
+    <t>Исследование уровня паратиреоидного гормона в крови</t>
+  </si>
+  <si>
+    <t>Определение одного антигена групп крови по системе (АВО, подгруппы и групп крови меньшего значения)</t>
+  </si>
+  <si>
+    <t>Комплексное исследование на гематологическом анализаторе с функцией дифференциации лейкоцитов по 5-ти популяциям (без определения ретикулоцитов)</t>
+  </si>
+  <si>
+    <t>УЗИ почек, надпочечников и забрюшинного пространства</t>
+  </si>
+  <si>
+    <t>Определение уровня тропонина в крови</t>
+  </si>
+  <si>
+    <t>Исследование уровня альдостерона</t>
+  </si>
+  <si>
+    <t>УЗ-допплерография в дуплексном режиме парных сосудов (артерий или вен)</t>
+  </si>
+  <si>
+    <t>Исследование уровня антитромбина III в крови</t>
+  </si>
+  <si>
+    <t>Определение протромбинового (тромбопластинового) времени с расчетом МНО</t>
+  </si>
+  <si>
+    <t>Исследование уровня  гликированного гемоглобина в крови</t>
+  </si>
+  <si>
+    <t>Определение Д-димера</t>
+  </si>
+  <si>
+    <t>Тредмилтест</t>
+  </si>
+  <si>
+    <t>Комплексное исследование на гематологическом анализаторе с функцией дифференциации лейкоцитов по 5-ти популяциям (с определением ретикулоцитов)</t>
+  </si>
+  <si>
+    <t>Исследование уровня  протеина С в крови</t>
+  </si>
+  <si>
+    <t>Определение одного биохимического показателя в моче и других биологических жидкостях с выдачей результата в количественном виде с определенной размерностью.</t>
+  </si>
+  <si>
+    <t>Исследование скорости оседания эритроцитов</t>
+  </si>
+  <si>
+    <t>Определение одного маркера резорбции костной ткани</t>
+  </si>
+  <si>
+    <t>Определение одного биохимического показателя в крови с выдачей результата в количественном виде с определенной размерностью.</t>
+  </si>
+  <si>
+    <t>17116701: ПАЛАТА РЕАНИМАЦИИ И ИНТЕНСИВНОЙ ТЕРАПИИ 2 К/О</t>
+  </si>
+  <si>
+    <t>Реанимация 1-ой категории сложности</t>
+  </si>
+  <si>
+    <t>12508103: 7 "A" КАРДИОХИРУРГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>10302905: ПЯТОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Хроническая легочно-сердечная недостаточность</t>
+  </si>
+  <si>
+    <t>19007600: ЛАБОРАТОРИЯ РАДИОИЗОТОПНОЙ ДИАГНОСТИКИ</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия щитовидной железы</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия миокарда</t>
+  </si>
+  <si>
+    <t>Однофотонная эмиссионная компьютерная томография</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия паращитовидных желез</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия костей</t>
+  </si>
+  <si>
+    <t>Однофотонная эмиссионная компьютерная томография, совмещенная с компьютерной томографией</t>
+  </si>
+  <si>
+    <t>Сцинтиграфия легких</t>
+  </si>
+  <si>
+    <t>Динамическая нефросцинтиграфия</t>
+  </si>
+  <si>
+    <t>10302904: ЧЕТВЕРТОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>10302906: ШЕСТОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>19002901: (ДС) КАБИНЕТ РЕНТГЕНОАНГИОГРАФИИ ПРИ КПО</t>
+  </si>
+  <si>
+    <t>ЭКГ (в 12-ти отведениях) ЭКЧМП-3051</t>
+  </si>
+  <si>
+    <t>ЭКГ (в 12-ти отведениях) 2-3-канальным электрокардиографом</t>
+  </si>
+  <si>
+    <t>Прием врача-кардиолога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Консультация снимков, трактовка исследований специалистами, выполненных в других МО</t>
+  </si>
+  <si>
+    <t>Консультация врача-кардиолога</t>
+  </si>
+  <si>
+    <t>Прием врача-кардиолога лечебно-диагностический, повторный, амб.</t>
+  </si>
+  <si>
+    <t>10402903: СЕДЬМОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>10402902: ВТОРОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>10402901: ПЕРВОЕ КАРДИОЛОГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Ревматические пороки сердца</t>
+  </si>
+  <si>
+    <t>Плановое коронарографическое исследование</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 3 стентов в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 2 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>Другие цереброваскулярные болезни</t>
+  </si>
+  <si>
+    <t>Спондилез и связанные с ним состояния. Остеохондроз позвоночника</t>
+  </si>
+  <si>
+    <t>Острый инфаркт миокарда неосложненный</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 1 стента в сосуд (сосуды) (нестабильная стенокардия, острый и повторный инфаркт миокарда (без подъема сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>Баллонная вазодилатация с установкой 3 стентов в сосуд (сосуды) (острый и повторный инфаркт миокарда (с подъемом сегмента ST электрокардиограммы))</t>
+  </si>
+  <si>
+    <t>12508100: ТРЕТЬЕ КАРДИОХИРУРГИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>10102901: КОНСУЛЬТАТИВНО-ПОЛИКЛИНИЧЕСКОЕ ОТДЕЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Прием врача-невролога лечебно-диагностический, повторный, амб.</t>
+  </si>
+  <si>
+    <t>Стресс-эхоКГ с физической нагрузкой (на велоэргометре или тредмиле)</t>
+  </si>
+  <si>
+    <t>Прием врача-эндокринолога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Консультация врача-хирурга</t>
+  </si>
+  <si>
+    <t>Холтеровское мониторирование при длительности  мониторирования до 24 часов</t>
+  </si>
+  <si>
+    <t>Длительное мониторирование артериального давления свободно передвигающегося человека</t>
+  </si>
+  <si>
+    <t>Прием врача-офтальмолога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>УЗИ селезенки</t>
+  </si>
+  <si>
+    <t>УЗИ органов  гепатобилиарной  системы ( печень, желч. пузырь и желч. протоки, поджелудочная железа)</t>
+  </si>
+  <si>
+    <t>Консультация врача-невролога</t>
+  </si>
+  <si>
+    <t>Консультация врача-эндокринолога</t>
+  </si>
+  <si>
+    <t>Прием врача-эндокринолога лечебно-диагностический, повторный, амб.</t>
+  </si>
+  <si>
+    <t>УЗИ щитовидной железы</t>
+  </si>
+  <si>
+    <t>Прием врача-невролога лечебно-диагностический, первичный, амб.</t>
+  </si>
+  <si>
+    <t>Эхокардиография с допплеровским анализом</t>
+  </si>
+  <si>
+    <t>УЗИ полых органов (желудка, кишечника)</t>
+  </si>
+  <si>
+    <t>Консультация врача сердечно-сосудистого хирурга (врача-кардиолога) КДО стационара (осмотр, консультация врача-специалиста с настройкой ритма кардиостимулятора)</t>
+  </si>
+  <si>
+    <t>17116700: ПАЛАТА РЕАНИМАЦИИ И ИНТЕНСИВНОЙ ТЕРАПИИ 1 К/О</t>
+  </si>
+  <si>
+    <t>Реанимация 5-ой категории сложности</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -52,13 +373,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -69,6 +400,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="medgroup" ref="A3:F121" totalsRowCount="1" headerRowCount="1">
+  <autoFilter ref="A3:F120">
+    <filterColumn colId="0" hiddenButton="0"/>
+    <filterColumn colId="1" hiddenButton="0"/>
+    <filterColumn colId="2" hiddenButton="0"/>
+    <filterColumn colId="3" hiddenButton="0"/>
+    <filterColumn colId="4" hiddenButton="0"/>
+    <filterColumn colId="5" hiddenButton="0"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Наименование отделения" totalsRowLabel="Total" dxfId="0"/>
+    <tableColumn id="2" name="Код услуги" totalsRowFunction="none" dxfId="1"/>
+    <tableColumn id="3" name="Наименование услуги" totalsRowFunction="none" dxfId="2"/>
+    <tableColumn id="4" name="Кол-во услуг за период" totalsRowFunction="none" dxfId="3"/>
+    <tableColumn id="5" name="Кол-во карт за период" totalsRowFunction="none" dxfId="4"/>
+    <tableColumn id="6" name="Суммарная стоимость услуг (руб) за период" totalsRowFunction="none" dxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F121"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -407,6 +760,2371 @@
       </c>
       <c r="E1"/>
       <c r="F1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>69180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2977.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>69191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>17338.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>69100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>6696.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>69190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>96573.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>69070</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>30735.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>69090</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>41146.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>35210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>189.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1974</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>35201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>225.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>35002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>563</v>
+      </c>
+      <c r="E13">
+        <v>563</v>
+      </c>
+      <c r="F13">
+        <v>154650.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>35004</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>796.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>69140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>129683.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>69020</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>38117.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>69070</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>150602.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>69190</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>170861.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>69090</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>104449.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>59004</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>462889.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>26054</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>138</v>
+      </c>
+      <c r="E21">
+        <v>138</v>
+      </c>
+      <c r="F21">
+        <v>58516.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>25125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>194</v>
+      </c>
+      <c r="E22">
+        <v>194</v>
+      </c>
+      <c r="F22">
+        <v>14806.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>26032</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>240.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>26167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>172.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>26229</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>7163.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>26148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>334.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>28019</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>360.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>25064</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>493</v>
+      </c>
+      <c r="E28">
+        <v>493</v>
+      </c>
+      <c r="F28">
+        <v>96869.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>40032</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>168.53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>26176</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>10697.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>26168</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>229.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>40091</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>26068</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>2292.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>26056</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>97.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>26098</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>4161.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>26055</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>3473.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>22128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>490.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>25065</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>222.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>26238</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>300.41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>26003</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>99.68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>25016</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41">
+        <v>307</v>
+      </c>
+      <c r="E41">
+        <v>307</v>
+      </c>
+      <c r="F41">
+        <v>18478.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>26228</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>243.85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43">
+        <v>26002</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43">
+        <v>6172</v>
+      </c>
+      <c r="E43">
+        <v>644</v>
+      </c>
+      <c r="F43">
+        <v>334152.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>83010</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>8523.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>69190</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>52001.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>69190</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>156003.72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47">
+        <v>69070</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>90</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>331939.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>70120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>31139.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>69090</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>85458.72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>38002</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>70224.57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>38003</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>636</v>
+      </c>
+      <c r="E51">
+        <v>628</v>
+      </c>
+      <c r="F51">
+        <v>4812758.28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>38022</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>9303.09</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>38046</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>46949.77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>38013</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <v>167</v>
+      </c>
+      <c r="E54">
+        <v>167</v>
+      </c>
+      <c r="F54">
+        <v>788133.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>38005</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>81608.88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>38006</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>39042.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>38037</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>29927.52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>69070</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>52</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>193631.34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>69090</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>34</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>113944.96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>69190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>35</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>208004.96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>69070</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>46102.68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>69190</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>41</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>260006.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>69090</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>47</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>126605.52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>22104</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64">
+        <v>88</v>
+      </c>
+      <c r="E64">
+        <v>88</v>
+      </c>
+      <c r="F64">
+        <v>7794.16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>22106</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65">
+        <v>69</v>
+      </c>
+      <c r="E65">
+        <v>69</v>
+      </c>
+      <c r="F65">
+        <v>6474.96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>1041</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66">
+        <v>163</v>
+      </c>
+      <c r="E66">
+        <v>163</v>
+      </c>
+      <c r="F66">
+        <v>21978.92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1720</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>649.55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1702</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>770.24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>1042</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69">
+        <v>34</v>
+      </c>
+      <c r="E69">
+        <v>34</v>
+      </c>
+      <c r="F69">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>69190</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>28</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>208004.96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>69090</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>28486.24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>69180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>20840.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>69190</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>13</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>104002.48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>69090</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>34</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>98119.28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>69070</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>32</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>110646.48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>69070</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76">
+        <v>41</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>169043.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>78160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>2522.98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>69095</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>14983.68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79">
+        <v>200523</v>
+      </c>
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>65</v>
+      </c>
+      <c r="E79">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>1767910.68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80">
+        <v>69090</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>54</v>
+      </c>
+      <c r="E80">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>256376.16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81">
+        <v>200524</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <v>27</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>926265.44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82">
+        <v>200519</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <v>71</v>
+      </c>
+      <c r="E82">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>2812045.61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83">
+        <v>69140</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83">
+        <v>37</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>194525.22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84">
+        <v>200518</v>
+      </c>
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84">
+        <v>96</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>3109949.46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85">
+        <v>66230</v>
+      </c>
+      <c r="C85" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>10931.42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86">
+        <v>66250</v>
+      </c>
+      <c r="C86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>30029.74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87">
+        <v>69190</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>7428.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88">
+        <v>69110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88">
+        <v>34</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>181865.24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89">
+        <v>200522</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89">
+        <v>82</v>
+      </c>
+      <c r="E89">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>2150207.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90">
+        <v>200520</v>
+      </c>
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90">
+        <v>49</v>
+      </c>
+      <c r="E90">
+        <v>6</v>
+      </c>
+      <c r="F90">
+        <v>1693770.78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91">
+        <v>69190</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>52001.24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92">
+        <v>1302</v>
+      </c>
+      <c r="C92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>9</v>
+      </c>
+      <c r="F92">
+        <v>666.63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93">
+        <v>1720</v>
+      </c>
+      <c r="C93" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <v>779.46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94">
+        <v>40089</v>
+      </c>
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94">
+        <v>487</v>
+      </c>
+      <c r="E94">
+        <v>487</v>
+      </c>
+      <c r="F94">
+        <v>383303.09</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95">
+        <v>1071</v>
+      </c>
+      <c r="C95" t="s">
+        <v>91</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95">
+        <v>670.62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96">
+        <v>1707</v>
+      </c>
+      <c r="C96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96">
+        <v>181</v>
+      </c>
+      <c r="E96">
+        <v>181</v>
+      </c>
+      <c r="F96">
+        <v>96842.24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97">
+        <v>40032</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97">
+        <v>92</v>
+      </c>
+      <c r="E97">
+        <v>92</v>
+      </c>
+      <c r="F97">
+        <v>15504.76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98">
+        <v>1041</v>
+      </c>
+      <c r="C98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98">
+        <v>710</v>
+      </c>
+      <c r="E98">
+        <v>710</v>
+      </c>
+      <c r="F98">
+        <v>95736.66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99">
+        <v>22142</v>
+      </c>
+      <c r="C99" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99">
+        <v>117</v>
+      </c>
+      <c r="E99">
+        <v>117</v>
+      </c>
+      <c r="F99">
+        <v>71811.09</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100">
+        <v>22511</v>
+      </c>
+      <c r="C100" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100">
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>15</v>
+      </c>
+      <c r="F100">
+        <v>6175.35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101">
+        <v>1261</v>
+      </c>
+      <c r="C101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>156.84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102">
+        <v>40003</v>
+      </c>
+      <c r="C102" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>218.04</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103">
+        <v>40001</v>
+      </c>
+      <c r="C103" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="F103">
+        <v>1029.06</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104">
+        <v>1712</v>
+      </c>
+      <c r="C104" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>179.61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105">
+        <v>26229</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>247.03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106">
+        <v>1705</v>
+      </c>
+      <c r="C106" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>1083.36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107">
+        <v>1072</v>
+      </c>
+      <c r="C107" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>221.58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108">
+        <v>40051</v>
+      </c>
+      <c r="C108" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108">
+        <v>21</v>
+      </c>
+      <c r="E108">
+        <v>21</v>
+      </c>
+      <c r="F108">
+        <v>1769.67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109">
+        <v>1301</v>
+      </c>
+      <c r="C109" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>88</v>
+      </c>
+      <c r="B110">
+        <v>40083</v>
+      </c>
+      <c r="C110" t="s">
+        <v>103</v>
+      </c>
+      <c r="D110">
+        <v>806</v>
+      </c>
+      <c r="E110">
+        <v>806</v>
+      </c>
+      <c r="F110">
+        <v>264496.96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>88</v>
+      </c>
+      <c r="B111">
+        <v>40091</v>
+      </c>
+      <c r="C111" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111">
+        <v>322</v>
+      </c>
+      <c r="E111">
+        <v>281</v>
+      </c>
+      <c r="F111">
+        <v>28368.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112">
+        <v>1974</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112">
+        <v>202</v>
+      </c>
+      <c r="E112">
+        <v>202</v>
+      </c>
+      <c r="F112">
+        <v>1717000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113">
+        <v>40005</v>
+      </c>
+      <c r="C113" t="s">
+        <v>104</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>6</v>
+      </c>
+      <c r="F113">
+        <v>1368.06</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114">
+        <v>22104</v>
+      </c>
+      <c r="C114" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114">
+        <v>1156</v>
+      </c>
+      <c r="E114">
+        <v>1156</v>
+      </c>
+      <c r="F114">
+        <v>102386.92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115">
+        <v>1042</v>
+      </c>
+      <c r="C115" t="s">
+        <v>72</v>
+      </c>
+      <c r="D115">
+        <v>731</v>
+      </c>
+      <c r="E115">
+        <v>731</v>
+      </c>
+      <c r="F115">
+        <v>73100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116">
+        <v>22106</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116">
+        <v>437</v>
+      </c>
+      <c r="E116">
+        <v>437</v>
+      </c>
+      <c r="F116">
+        <v>41008.08</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>88</v>
+      </c>
+      <c r="B117">
+        <v>1780</v>
+      </c>
+      <c r="C117" t="s">
+        <v>105</v>
+      </c>
+      <c r="D117">
+        <v>219</v>
+      </c>
+      <c r="E117">
+        <v>219</v>
+      </c>
+      <c r="F117">
+        <v>253851.66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B118">
+        <v>1702</v>
+      </c>
+      <c r="C118" t="s">
+        <v>71</v>
+      </c>
+      <c r="D118">
+        <v>3332</v>
+      </c>
+      <c r="E118">
+        <v>3332</v>
+      </c>
+      <c r="F118">
+        <v>641609.92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119">
+        <v>83050</v>
+      </c>
+      <c r="C119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>142602.39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120">
+        <v>83010</v>
+      </c>
+      <c r="C120" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120">
+        <v>77</v>
+      </c>
+      <c r="E120">
+        <v>69</v>
+      </c>
+      <c r="F120">
+        <v>656319.51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -418,5 +3136,8 @@
   <headerFooter differentFirst="1">
     <firstHeader>Report</firstHeader>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>